--- a/docs/队员任务分配.xlsx
+++ b/docs/队员任务分配.xlsx
@@ -108,11 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.数据的进一步清洗
-2.数据的探索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Scala，Spark，Hadoop，ETL，数据仓库建设，PPT制作，Kafka，Hbase，Hive，zeppelin </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,13 +133,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.推荐算法或模型选择，确定，调试，调优
-2.用代码探索性实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.推荐功能实现
 2.项目代码调试和调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.推荐算法或模型的选择以及确定
+2.用代码探索性实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据的进一步清洗
+2.数据的探索，数据之间关联的效果等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,9 +208,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -219,6 +216,9 @@
     </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -535,75 +535,75 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="54.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="54.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -634,16 +634,16 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="5">
+        <v>26</v>
+      </c>
+      <c r="E1" s="4">
         <v>42573</v>
       </c>
     </row>
@@ -660,19 +660,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
@@ -680,10 +680,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
